--- a/Conti per la tensione e i ritardi.xlsx
+++ b/Conti per la tensione e i ritardi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andrea/Documents/Arduino/LabiRobot-Millis_Version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andrea/Documents/Arduino/LabiRobot/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="12880" yWindow="440" windowWidth="12720" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -66,6 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -110,21 +114,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -405,255 +411,254 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="215" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>272</v>
-      </c>
-      <c r="C3" s="5">
-        <v>264</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="3">
+        <v>262</v>
+      </c>
+      <c r="C3" s="3">
+        <v>260</v>
+      </c>
+      <c r="D3" s="3">
         <f>B3-C3</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3/$B$7</f>
+        <v>32.581453634085214</v>
+      </c>
+      <c r="F3" s="4">
+        <f>B3*$B$7/C3</f>
+        <v>8.0413846153846169</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>482</v>
+      </c>
+      <c r="C4" s="3">
+        <v>476</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D7" si="0">B4-C4</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E6" si="1">C4/$B$7</f>
+        <v>59.649122807017541</v>
+      </c>
+      <c r="F4" s="4">
+        <f>B4*$B$7/C4</f>
+        <v>8.0805882352941172</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>484</v>
+      </c>
+      <c r="C5" s="3">
+        <v>476</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E3" s="5">
-        <f>C3/$B$7</f>
-        <v>33.082706766917291</v>
-      </c>
-      <c r="F3" s="5">
-        <f>B3*$B$7/C3</f>
-        <v>8.2218181818181808</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>640</v>
-      </c>
-      <c r="C4" s="5">
-        <v>499</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:D7" si="0">B4-C4</f>
-        <v>141</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E7" si="1">C4/$B$7</f>
-        <v>62.531328320802004</v>
-      </c>
-      <c r="F4" s="5">
-        <f>B4*$B$7/C4</f>
-        <v>10.23486973947896</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>634</v>
-      </c>
-      <c r="C5" s="5">
-        <v>485</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>59.649122807017541</v>
+      </c>
+      <c r="F5" s="4">
+        <f>B5*$B$7/C5</f>
+        <v>8.1141176470588245</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>890</v>
+      </c>
+      <c r="C6" s="3">
+        <v>872</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>149</v>
-      </c>
-      <c r="E5" s="5">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>60.776942355889723</v>
-      </c>
-      <c r="F5" s="5">
-        <f>B5*$B$7/C5</f>
-        <v>10.43158762886598</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <f>B4*2-80</f>
-        <v>1200</v>
-      </c>
-      <c r="C6" s="5">
-        <f>C4*2-60</f>
-        <v>938</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>262</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>117.54385964912279</v>
-      </c>
-      <c r="F6" s="5">
+        <v>109.27318295739347</v>
+      </c>
+      <c r="F6" s="4">
         <f>B6*$B$7/C6</f>
-        <v>10.208955223880597</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+        <v>8.1447247706422026</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>7.98</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>-0.21999999999999886</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <f>C3*F3/$B$15</f>
-        <v>264.70243902439029</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>262.98867924528304</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
-        <f t="shared" ref="B12:B14" si="2">C4*F4/$B$15</f>
-        <v>622.82926829268308</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="7">
+        <f>C4*F4/$B$15</f>
+        <v>483.81886792452826</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
+        <f t="shared" ref="B12:B14" si="2">C5*F5/$B$15</f>
+        <v>485.82641509433967</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
         <f t="shared" si="2"/>
-        <v>616.99024390243915</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5">
-        <f t="shared" si="2"/>
-        <v>1167.8048780487807</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>893.35849056603786</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="3">
+        <v>7.95</v>
+      </c>
+      <c r="C15" s="3">
         <f>B15-C7</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+        <v>-0.24999999999999911</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Conti per la tensione e i ritardi.xlsx
+++ b/Conti per la tensione e i ritardi.xlsx
@@ -68,7 +68,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -124,13 +124,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="215" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="215" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,14 +423,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -457,14 +457,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C3" s="3">
         <v>260</v>
       </c>
       <c r="D3" s="3">
         <f>B3-C3</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3">
         <f>C3/$B$7</f>
@@ -472,7 +472,7 @@
       </c>
       <c r="F3" s="4">
         <f>B3*$B$7/C3</f>
-        <v>8.0413846153846169</v>
+        <v>8.1027692307692316</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -482,14 +482,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="C4" s="3">
         <v>476</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D7" si="0">B4-C4</f>
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E6" si="1">C4/$B$7</f>
@@ -497,7 +497,7 @@
       </c>
       <c r="F4" s="4">
         <f>B4*$B$7/C4</f>
-        <v>8.0805882352941172</v>
+        <v>9.0194117647058825</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -507,14 +507,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="C5" s="3">
         <v>476</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="1"/>
@@ -522,7 +522,7 @@
       </c>
       <c r="F5" s="4">
         <f>B5*$B$7/C5</f>
-        <v>8.1141176470588245</v>
+        <v>8.8014705882352935</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -532,14 +532,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>890</v>
+        <v>990</v>
       </c>
       <c r="C6" s="3">
         <v>872</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
@@ -547,7 +547,7 @@
       </c>
       <c r="F6" s="4">
         <f>B6*$B$7/C6</f>
-        <v>8.1447247706422026</v>
+        <v>9.059862385321102</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -572,14 +572,14 @@
       <c r="H7" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -599,7 +599,7 @@
       </c>
       <c r="B11" s="3">
         <f>C3*F3/$B$15</f>
-        <v>262.98867924528304</v>
+        <v>273.24513618677048</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -610,9 +610,9 @@
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <f>C4*F4/$B$15</f>
-        <v>483.81886792452826</v>
+        <v>556.84046692607001</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -624,8 +624,8 @@
         <v>3</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" ref="B12:B14" si="2">C5*F5/$B$15</f>
-        <v>485.82641509433967</v>
+        <f t="shared" ref="B13:B14" si="2">C5*F5/$B$15</f>
+        <v>543.38521400778211</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -638,7 +638,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="2"/>
-        <v>893.35849056603786</v>
+        <v>1024.6692607003893</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -650,11 +650,11 @@
         <v>5</v>
       </c>
       <c r="B15" s="3">
-        <v>7.95</v>
+        <v>7.71</v>
       </c>
       <c r="C15" s="3">
         <f>B15-C7</f>
-        <v>-0.24999999999999911</v>
+        <v>-0.48999999999999932</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>

--- a/Conti per la tensione e i ritardi.xlsx
+++ b/Conti per la tensione e i ritardi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Finale</t>
   </si>
@@ -60,15 +60,17 @@
   </si>
   <si>
     <t>Iniziale (BASE)</t>
+  </si>
+  <si>
+    <t>Base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -114,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -124,7 +126,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="215" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="215" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,14 +424,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -457,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="C3" s="3">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D3" s="3">
         <f>B3-C3</f>
@@ -468,11 +469,11 @@
       </c>
       <c r="E3" s="3">
         <f>C3/$B$7</f>
-        <v>32.581453634085214</v>
+        <v>28.822055137844611</v>
       </c>
       <c r="F3" s="4">
         <f>B3*$B$7/C3</f>
-        <v>8.1027692307692316</v>
+        <v>8.1187826086956534</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -482,14 +483,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="C4" s="3">
         <v>476</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D7" si="0">B4-C4</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E6" si="1">C4/$B$7</f>
@@ -497,7 +498,7 @@
       </c>
       <c r="F4" s="4">
         <f>B4*$B$7/C4</f>
-        <v>9.0194117647058825</v>
+        <v>8.8014705882352935</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -507,14 +508,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C5" s="3">
         <v>476</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="1"/>
@@ -522,7 +523,7 @@
       </c>
       <c r="F5" s="4">
         <f>B5*$B$7/C5</f>
-        <v>8.8014705882352935</v>
+        <v>8.7176470588235304</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -532,14 +533,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="C6" s="3">
         <v>872</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
@@ -547,7 +548,7 @@
       </c>
       <c r="F6" s="4">
         <f>B6*$B$7/C6</f>
-        <v>9.059862385321102</v>
+        <v>8.9500458715596345</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -572,14 +573,14 @@
       <c r="H7" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -589,7 +590,9 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
@@ -598,11 +601,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="3">
-        <f>C3*F3/$B$15</f>
-        <v>273.24513618677048</v>
+        <f>D11*F3/$B$15</f>
+        <v>219.68470588235297</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>230</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -610,12 +615,14 @@
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
-        <f>C4*F4/$B$15</f>
-        <v>556.84046692607001</v>
+      <c r="B12" s="3">
+        <f t="shared" ref="B12:B14" si="2">D12*F4/$B$15</f>
+        <v>482.52768166089965</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>466</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
@@ -624,11 +631,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" ref="B13:B14" si="2">C5*F5/$B$15</f>
-        <v>543.38521400778211</v>
+        <f t="shared" si="2"/>
+        <v>477.93217993079588</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>466</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
@@ -638,10 +647,12 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="2"/>
-        <v>1024.6692607003893</v>
+        <v>905.53405288721012</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>860</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
@@ -650,11 +661,11 @@
         <v>5</v>
       </c>
       <c r="B15" s="3">
-        <v>7.71</v>
+        <v>8.5</v>
       </c>
       <c r="C15" s="3">
         <f>B15-C7</f>
-        <v>-0.48999999999999932</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
